--- a/MVC/MVC/Grid.xlsx
+++ b/MVC/MVC/Grid.xlsx
@@ -37,28 +37,31 @@
     <x:t>24</x:t>
   </x:si>
   <x:si>
+    <x:t>Nam Dinh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Do Tuan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Duc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ha Noi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hoang Thanh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Huong</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21</x:t>
+  </x:si>
+  <x:si>
     <x:t>VietNam</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Do Tuan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Duc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ha Noi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hoang Thanh</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Huong</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -481,7 +484,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
